--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H2">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I2">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J2">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4877473232137</v>
+        <v>10.549349</v>
       </c>
       <c r="N2">
-        <v>10.4877473232137</v>
+        <v>21.098698</v>
       </c>
       <c r="O2">
-        <v>0.2036460042518571</v>
+        <v>0.2003757356031913</v>
       </c>
       <c r="P2">
-        <v>0.2036460042518571</v>
+        <v>0.1553690022437478</v>
       </c>
       <c r="Q2">
-        <v>88.05798802023881</v>
+        <v>88.724107688063</v>
       </c>
       <c r="R2">
-        <v>88.05798802023881</v>
+        <v>354.896430752252</v>
       </c>
       <c r="S2">
-        <v>0.03883624611963235</v>
+        <v>0.03762521627867309</v>
       </c>
       <c r="T2">
-        <v>0.03883624611963235</v>
+        <v>0.02183275563825137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H3">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I3">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J3">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.21537496703615</v>
+        <v>7.622387333333333</v>
       </c>
       <c r="N3">
-        <v>7.21537496703615</v>
+        <v>22.867162</v>
       </c>
       <c r="O3">
-        <v>0.1401046607943576</v>
+        <v>0.1447806370771423</v>
       </c>
       <c r="P3">
-        <v>0.1401046607943576</v>
+        <v>0.1683918194424199</v>
       </c>
       <c r="Q3">
-        <v>60.58225687822035</v>
+        <v>64.10722733723134</v>
       </c>
       <c r="R3">
-        <v>60.58225687822035</v>
+        <v>384.643364023388</v>
       </c>
       <c r="S3">
-        <v>0.02671861453460193</v>
+        <v>0.02718594028659824</v>
       </c>
       <c r="T3">
-        <v>0.02671861453460193</v>
+        <v>0.02366274734518251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H4">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I4">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J4">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.88741561314725</v>
+        <v>5.987528666666667</v>
       </c>
       <c r="N4">
-        <v>5.88741561314725</v>
+        <v>17.962586</v>
       </c>
       <c r="O4">
-        <v>0.1143189884384102</v>
+        <v>0.1137279144929728</v>
       </c>
       <c r="P4">
-        <v>0.1143189884384102</v>
+        <v>0.1322749424887504</v>
       </c>
       <c r="Q4">
-        <v>49.43234782031598</v>
+        <v>50.35743326026067</v>
       </c>
       <c r="R4">
-        <v>49.43234782031598</v>
+        <v>302.144599561564</v>
       </c>
       <c r="S4">
-        <v>0.02180116613361452</v>
+        <v>0.0213550676025685</v>
       </c>
       <c r="T4">
-        <v>0.02180116613361452</v>
+        <v>0.01858753325769558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H5">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I5">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J5">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.25613706530995</v>
+        <v>7.261083333333333</v>
       </c>
       <c r="N5">
-        <v>7.25613706530995</v>
+        <v>21.78325</v>
       </c>
       <c r="O5">
-        <v>0.1408961595006629</v>
+        <v>0.137917980928751</v>
       </c>
       <c r="P5">
-        <v>0.1408961595006629</v>
+        <v>0.1604099844514633</v>
       </c>
       <c r="Q5">
-        <v>60.92450657692631</v>
+        <v>61.06852087258333</v>
       </c>
       <c r="R5">
-        <v>60.92450657692631</v>
+        <v>366.4111252355</v>
       </c>
       <c r="S5">
-        <v>0.02686955704228516</v>
+        <v>0.02589731658646758</v>
       </c>
       <c r="T5">
-        <v>0.02686955704228516</v>
+        <v>0.0225411243033546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H6">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I6">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J6">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.102922725393521</v>
+        <v>9.630672333333335</v>
       </c>
       <c r="N6">
-        <v>9.102922725393521</v>
+        <v>28.892017</v>
       </c>
       <c r="O6">
-        <v>0.1767561500968517</v>
+        <v>0.1829262690185878</v>
       </c>
       <c r="P6">
-        <v>0.1767561500968517</v>
+        <v>0.2127583348555158</v>
       </c>
       <c r="Q6">
-        <v>76.43062285907905</v>
+        <v>80.99768139352635</v>
       </c>
       <c r="R6">
-        <v>76.43062285907905</v>
+        <v>485.9860883611581</v>
       </c>
       <c r="S6">
-        <v>0.03370822508174703</v>
+        <v>0.03434867207926289</v>
       </c>
       <c r="T6">
-        <v>0.03370822508174703</v>
+        <v>0.0298972167409195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H7">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I7">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J7">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5502947871832</v>
+        <v>11.596816</v>
       </c>
       <c r="N7">
-        <v>11.5502947871832</v>
+        <v>23.193632</v>
       </c>
       <c r="O7">
-        <v>0.2242780369178603</v>
+        <v>0.2202714628793548</v>
       </c>
       <c r="P7">
-        <v>0.2242780369178603</v>
+        <v>0.1707959165181028</v>
       </c>
       <c r="Q7">
-        <v>96.97942643495554</v>
+        <v>97.53371052779201</v>
       </c>
       <c r="R7">
-        <v>96.97942643495554</v>
+        <v>390.134842111168</v>
       </c>
       <c r="S7">
-        <v>0.04277087131156213</v>
+        <v>0.04136110295943158</v>
       </c>
       <c r="T7">
-        <v>0.04277087131156213</v>
+        <v>0.024000575761572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H8">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I8">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J8">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4877473232137</v>
+        <v>10.549349</v>
       </c>
       <c r="N8">
-        <v>10.4877473232137</v>
+        <v>21.098698</v>
       </c>
       <c r="O8">
-        <v>0.2036460042518571</v>
+        <v>0.2003757356031913</v>
       </c>
       <c r="P8">
-        <v>0.2036460042518571</v>
+        <v>0.1553690022437478</v>
       </c>
       <c r="Q8">
-        <v>68.66173295721465</v>
+        <v>73.82532890790667</v>
       </c>
       <c r="R8">
-        <v>68.66173295721465</v>
+        <v>442.95197344744</v>
       </c>
       <c r="S8">
-        <v>0.03028190877486311</v>
+        <v>0.03130709385965318</v>
       </c>
       <c r="T8">
-        <v>0.03028190877486311</v>
+        <v>0.02724981532009337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H9">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I9">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J9">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.21537496703615</v>
+        <v>7.622387333333333</v>
       </c>
       <c r="N9">
-        <v>7.21537496703615</v>
+        <v>22.867162</v>
       </c>
       <c r="O9">
-        <v>0.1401046607943576</v>
+        <v>0.1447806370771423</v>
       </c>
       <c r="P9">
-        <v>0.1401046607943576</v>
+        <v>0.1683918194424199</v>
       </c>
       <c r="Q9">
-        <v>47.23799438571894</v>
+        <v>53.34217798148445</v>
       </c>
       <c r="R9">
-        <v>47.23799438571894</v>
+        <v>480.0796018333601</v>
       </c>
       <c r="S9">
-        <v>0.02083338964932913</v>
+        <v>0.02262080775593813</v>
       </c>
       <c r="T9">
-        <v>0.02083338964932913</v>
+        <v>0.02953385755816102</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H10">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I10">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J10">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.88741561314725</v>
+        <v>5.987528666666667</v>
       </c>
       <c r="N10">
-        <v>5.88741561314725</v>
+        <v>17.962586</v>
       </c>
       <c r="O10">
-        <v>0.1143189884384102</v>
+        <v>0.1137279144929728</v>
       </c>
       <c r="P10">
-        <v>0.1143189884384102</v>
+        <v>0.1322749424887504</v>
       </c>
       <c r="Q10">
-        <v>38.54404060091178</v>
+        <v>41.90128444534223</v>
       </c>
       <c r="R10">
-        <v>38.54404060091178</v>
+        <v>377.1115600080801</v>
       </c>
       <c r="S10">
-        <v>0.01699909208552517</v>
+        <v>0.01776907010609825</v>
       </c>
       <c r="T10">
-        <v>0.01699909208552517</v>
+        <v>0.02319940079578819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H11">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I11">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J11">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.25613706530995</v>
+        <v>7.261083333333333</v>
       </c>
       <c r="N11">
-        <v>7.25613706530995</v>
+        <v>21.78325</v>
       </c>
       <c r="O11">
-        <v>0.1408961595006629</v>
+        <v>0.137917980928751</v>
       </c>
       <c r="P11">
-        <v>0.1408961595006629</v>
+        <v>0.1604099844514633</v>
       </c>
       <c r="Q11">
-        <v>47.50485782361437</v>
+        <v>50.81373886777778</v>
       </c>
       <c r="R11">
-        <v>47.50485782361437</v>
+        <v>457.3236498100001</v>
       </c>
       <c r="S11">
-        <v>0.02095108452730041</v>
+        <v>0.0215485730389079</v>
       </c>
       <c r="T11">
-        <v>0.02095108452730041</v>
+        <v>0.02813394170443237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H12">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I12">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J12">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.102922725393521</v>
+        <v>9.630672333333335</v>
       </c>
       <c r="N12">
-        <v>9.102922725393521</v>
+        <v>28.892017</v>
       </c>
       <c r="O12">
-        <v>0.1767561500968517</v>
+        <v>0.1829262690185878</v>
       </c>
       <c r="P12">
-        <v>0.1767561500968517</v>
+        <v>0.2127583348555158</v>
       </c>
       <c r="Q12">
-        <v>59.59549081790889</v>
+        <v>67.3963438514178</v>
       </c>
       <c r="R12">
-        <v>59.59549081790889</v>
+        <v>606.5670946627602</v>
       </c>
       <c r="S12">
-        <v>0.02628342074421067</v>
+        <v>0.02858075533108554</v>
       </c>
       <c r="T12">
-        <v>0.02628342074421067</v>
+        <v>0.03731519961445005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H13">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I13">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J13">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.5502947871832</v>
+        <v>11.596816</v>
       </c>
       <c r="N13">
-        <v>11.5502947871832</v>
+        <v>23.193632</v>
       </c>
       <c r="O13">
-        <v>0.2242780369178603</v>
+        <v>0.2202714628793548</v>
       </c>
       <c r="P13">
-        <v>0.2242780369178603</v>
+        <v>0.1707959165181028</v>
       </c>
       <c r="Q13">
-        <v>75.6180742931617</v>
+        <v>81.15560073749334</v>
       </c>
       <c r="R13">
-        <v>75.6180742931617</v>
+        <v>486.9336044249601</v>
       </c>
       <c r="S13">
-        <v>0.03334986649555189</v>
+        <v>0.0344156409068586</v>
       </c>
       <c r="T13">
-        <v>0.03334986649555189</v>
+        <v>0.02995550666691413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H14">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I14">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J14">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4877473232137</v>
+        <v>10.549349</v>
       </c>
       <c r="N14">
-        <v>10.4877473232137</v>
+        <v>21.098698</v>
       </c>
       <c r="O14">
-        <v>0.2036460042518571</v>
+        <v>0.2003757356031913</v>
       </c>
       <c r="P14">
-        <v>0.2036460042518571</v>
+        <v>0.1553690022437478</v>
       </c>
       <c r="Q14">
-        <v>92.28767588644104</v>
+        <v>93.47809093657065</v>
       </c>
       <c r="R14">
-        <v>92.28767588644104</v>
+        <v>560.8685456194239</v>
       </c>
       <c r="S14">
-        <v>0.04070166688013506</v>
+        <v>0.03964123709388558</v>
       </c>
       <c r="T14">
-        <v>0.04070166688013506</v>
+        <v>0.03450388575544338</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H15">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I15">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J15">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.21537496703615</v>
+        <v>7.622387333333333</v>
       </c>
       <c r="N15">
-        <v>7.21537496703615</v>
+        <v>22.867162</v>
       </c>
       <c r="O15">
-        <v>0.1401046607943576</v>
+        <v>0.1447806370771423</v>
       </c>
       <c r="P15">
-        <v>0.1401046607943576</v>
+        <v>0.1683918194424199</v>
       </c>
       <c r="Q15">
-        <v>63.49220340988607</v>
+        <v>67.54219775069511</v>
       </c>
       <c r="R15">
-        <v>63.49220340988607</v>
+        <v>607.879779756256</v>
       </c>
       <c r="S15">
-        <v>0.02800198929979377</v>
+        <v>0.02864260756773682</v>
       </c>
       <c r="T15">
-        <v>0.02800198929979377</v>
+        <v>0.03739595425268499</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H16">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I16">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J16">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.88741561314725</v>
+        <v>5.987528666666667</v>
       </c>
       <c r="N16">
-        <v>5.88741561314725</v>
+        <v>17.962586</v>
       </c>
       <c r="O16">
-        <v>0.1143189884384102</v>
+        <v>0.1137279144929728</v>
       </c>
       <c r="P16">
-        <v>0.1143189884384102</v>
+        <v>0.1322749424887504</v>
       </c>
       <c r="Q16">
-        <v>51.80673095663547</v>
+        <v>53.05566714950756</v>
       </c>
       <c r="R16">
-        <v>51.80673095663547</v>
+        <v>477.501004345568</v>
       </c>
       <c r="S16">
-        <v>0.02284834118198394</v>
+        <v>0.02249930715931096</v>
       </c>
       <c r="T16">
-        <v>0.02284834118198394</v>
+        <v>0.02937522567583681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H17">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I17">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J17">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.25613706530995</v>
+        <v>7.261083333333333</v>
       </c>
       <c r="N17">
-        <v>7.25613706530995</v>
+        <v>21.78325</v>
       </c>
       <c r="O17">
-        <v>0.1408961595006629</v>
+        <v>0.137917980928751</v>
       </c>
       <c r="P17">
-        <v>0.1408961595006629</v>
+        <v>0.1604099844514633</v>
       </c>
       <c r="Q17">
-        <v>63.85089238264739</v>
+        <v>64.34067240844443</v>
       </c>
       <c r="R17">
-        <v>63.85089238264739</v>
+        <v>579.0660516759999</v>
       </c>
       <c r="S17">
-        <v>0.02816018202642472</v>
+        <v>0.02728493729566892</v>
       </c>
       <c r="T17">
-        <v>0.02816018202642472</v>
+        <v>0.0356233720859108</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H18">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I18">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J18">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.102922725393521</v>
+        <v>9.630672333333335</v>
       </c>
       <c r="N18">
-        <v>9.102922725393521</v>
+        <v>28.892017</v>
       </c>
       <c r="O18">
-        <v>0.1767561500968517</v>
+        <v>0.1829262690185878</v>
       </c>
       <c r="P18">
-        <v>0.1767561500968517</v>
+        <v>0.2127583348555158</v>
       </c>
       <c r="Q18">
-        <v>80.10181368891071</v>
+        <v>85.33767004538845</v>
       </c>
       <c r="R18">
-        <v>80.10181368891071</v>
+        <v>768.0390304084959</v>
       </c>
       <c r="S18">
-        <v>0.03532733169348008</v>
+        <v>0.03618913028085344</v>
       </c>
       <c r="T18">
-        <v>0.03532733169348008</v>
+        <v>0.04724873799380076</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H19">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I19">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J19">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.5502947871832</v>
+        <v>11.596816</v>
       </c>
       <c r="N19">
-        <v>11.5502947871832</v>
+        <v>23.193632</v>
       </c>
       <c r="O19">
-        <v>0.2242780369178603</v>
+        <v>0.2202714628793548</v>
       </c>
       <c r="P19">
-        <v>0.2242780369178603</v>
+        <v>0.1707959165181028</v>
       </c>
       <c r="Q19">
-        <v>101.6376376033609</v>
+        <v>102.7597267492693</v>
       </c>
       <c r="R19">
-        <v>101.6376376033609</v>
+        <v>616.5583604956159</v>
       </c>
       <c r="S19">
-        <v>0.04482528385811988</v>
+        <v>0.04357729871200259</v>
       </c>
       <c r="T19">
-        <v>0.04482528385811988</v>
+        <v>0.03792984897844388</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H20">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I20">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J20">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.4877473232137</v>
+        <v>10.549349</v>
       </c>
       <c r="N20">
-        <v>10.4877473232137</v>
+        <v>21.098698</v>
       </c>
       <c r="O20">
-        <v>0.2036460042518571</v>
+        <v>0.2003757356031913</v>
       </c>
       <c r="P20">
-        <v>0.2036460042518571</v>
+        <v>0.1553690022437478</v>
       </c>
       <c r="Q20">
-        <v>94.45558583687271</v>
+        <v>95.04224994570001</v>
       </c>
       <c r="R20">
-        <v>94.45558583687271</v>
+        <v>570.2534996742</v>
       </c>
       <c r="S20">
-        <v>0.0416577809850907</v>
+        <v>0.04030454972160609</v>
       </c>
       <c r="T20">
-        <v>0.0416577809850907</v>
+        <v>0.03508123562655883</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H21">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I21">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J21">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.21537496703615</v>
+        <v>7.622387333333333</v>
       </c>
       <c r="N21">
-        <v>7.21537496703615</v>
+        <v>22.867162</v>
       </c>
       <c r="O21">
-        <v>0.1401046607943576</v>
+        <v>0.1447806370771423</v>
       </c>
       <c r="P21">
-        <v>0.1401046607943576</v>
+        <v>0.1683918194424199</v>
       </c>
       <c r="Q21">
-        <v>64.98368510801113</v>
+        <v>68.6723742022</v>
       </c>
       <c r="R21">
-        <v>64.98368510801113</v>
+        <v>618.0513678198</v>
       </c>
       <c r="S21">
-        <v>0.02865977800941089</v>
+        <v>0.02912188129084305</v>
       </c>
       <c r="T21">
-        <v>0.02865977800941089</v>
+        <v>0.03802169680009128</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H22">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I22">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J22">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.88741561314725</v>
+        <v>5.987528666666667</v>
       </c>
       <c r="N22">
-        <v>5.88741561314725</v>
+        <v>17.962586</v>
       </c>
       <c r="O22">
-        <v>0.1143189884384102</v>
+        <v>0.1137279144929728</v>
       </c>
       <c r="P22">
-        <v>0.1143189884384102</v>
+        <v>0.1322749424887504</v>
       </c>
       <c r="Q22">
-        <v>53.02371173398678</v>
+        <v>53.94344201660001</v>
       </c>
       <c r="R22">
-        <v>53.02371173398678</v>
+        <v>485.4909781494001</v>
       </c>
       <c r="S22">
-        <v>0.02338506665180974</v>
+        <v>0.02287578568641615</v>
       </c>
       <c r="T22">
-        <v>0.02338506665180974</v>
+        <v>0.02986675822026207</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H23">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I23">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J23">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.25613706530995</v>
+        <v>7.261083333333333</v>
       </c>
       <c r="N23">
-        <v>7.25613706530995</v>
+        <v>21.78325</v>
       </c>
       <c r="O23">
-        <v>0.1408961595006629</v>
+        <v>0.137917980928751</v>
       </c>
       <c r="P23">
-        <v>0.1408961595006629</v>
+        <v>0.1604099844514633</v>
       </c>
       <c r="Q23">
-        <v>65.35079996630581</v>
+        <v>65.417278075</v>
       </c>
       <c r="R23">
-        <v>65.35079996630581</v>
+        <v>588.755502675</v>
       </c>
       <c r="S23">
-        <v>0.02882168680736831</v>
+        <v>0.02774149326570375</v>
       </c>
       <c r="T23">
-        <v>0.02882168680736831</v>
+        <v>0.03621945420339385</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H24">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I24">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J24">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.102922725393521</v>
+        <v>9.630672333333335</v>
       </c>
       <c r="N24">
-        <v>9.102922725393521</v>
+        <v>28.892017</v>
       </c>
       <c r="O24">
-        <v>0.1767561500968517</v>
+        <v>0.1829262690185878</v>
       </c>
       <c r="P24">
-        <v>0.1767561500968517</v>
+        <v>0.2127583348555158</v>
       </c>
       <c r="Q24">
-        <v>81.98346817068023</v>
+        <v>86.76561625270003</v>
       </c>
       <c r="R24">
-        <v>81.98346817068023</v>
+        <v>780.8905462743002</v>
       </c>
       <c r="S24">
-        <v>0.03615719844616259</v>
+        <v>0.03679467917037625</v>
       </c>
       <c r="T24">
-        <v>0.03615719844616259</v>
+        <v>0.04803934612948834</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H25">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I25">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J25">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.5502947871832</v>
+        <v>11.596816</v>
       </c>
       <c r="N25">
-        <v>11.5502947871832</v>
+        <v>23.193632</v>
       </c>
       <c r="O25">
-        <v>0.2242780369178603</v>
+        <v>0.2202714628793548</v>
       </c>
       <c r="P25">
-        <v>0.2242780369178603</v>
+        <v>0.1707959165181028</v>
       </c>
       <c r="Q25">
-        <v>104.0251854940438</v>
+        <v>104.4791943888</v>
       </c>
       <c r="R25">
-        <v>104.0251854940438</v>
+        <v>626.8751663328001</v>
       </c>
       <c r="S25">
-        <v>0.04587826496283985</v>
+        <v>0.04430647304248984</v>
       </c>
       <c r="T25">
-        <v>0.04587826496283985</v>
+        <v>0.03856452512983004</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H26">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I26">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J26">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.4877473232137</v>
+        <v>10.549349</v>
       </c>
       <c r="N26">
-        <v>10.4877473232137</v>
+        <v>21.098698</v>
       </c>
       <c r="O26">
-        <v>0.2036460042518571</v>
+        <v>0.2003757356031913</v>
       </c>
       <c r="P26">
-        <v>0.2036460042518571</v>
+        <v>0.1553690022437478</v>
       </c>
       <c r="Q26">
-        <v>52.80053303209944</v>
+        <v>55.42069200747967</v>
       </c>
       <c r="R26">
-        <v>52.80053303209944</v>
+        <v>332.524152044878</v>
       </c>
       <c r="S26">
-        <v>0.02328663806866786</v>
+        <v>0.02350224282250739</v>
       </c>
       <c r="T26">
-        <v>0.02328663806866786</v>
+        <v>0.02045644285580491</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H27">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I27">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J27">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.21537496703615</v>
+        <v>7.622387333333333</v>
       </c>
       <c r="N27">
-        <v>7.21537496703615</v>
+        <v>22.867162</v>
       </c>
       <c r="O27">
-        <v>0.1401046607943576</v>
+        <v>0.1447806370771423</v>
       </c>
       <c r="P27">
-        <v>0.1401046607943576</v>
+        <v>0.1683918194424199</v>
       </c>
       <c r="Q27">
-        <v>36.32578403588346</v>
+        <v>40.04398572484244</v>
       </c>
       <c r="R27">
-        <v>36.32578403588346</v>
+        <v>360.3958715235821</v>
       </c>
       <c r="S27">
-        <v>0.01602077359503081</v>
+        <v>0.01698144577406668</v>
       </c>
       <c r="T27">
-        <v>0.01602077359503081</v>
+        <v>0.02217107390832522</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H28">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I28">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J28">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.88741561314725</v>
+        <v>5.987528666666667</v>
       </c>
       <c r="N28">
-        <v>5.88741561314725</v>
+        <v>17.962586</v>
       </c>
       <c r="O28">
-        <v>0.1143189884384102</v>
+        <v>0.1137279144929728</v>
       </c>
       <c r="P28">
-        <v>0.1143189884384102</v>
+        <v>0.1322749424887504</v>
       </c>
       <c r="Q28">
-        <v>29.64017657706352</v>
+        <v>31.45530422031623</v>
       </c>
       <c r="R28">
-        <v>29.64017657706352</v>
+        <v>283.0977379828461</v>
       </c>
       <c r="S28">
-        <v>0.01307221773351936</v>
+        <v>0.01333924516391712</v>
       </c>
       <c r="T28">
-        <v>0.01307221773351936</v>
+        <v>0.01741579570699014</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H29">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I29">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J29">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.25613706530995</v>
+        <v>7.261083333333333</v>
       </c>
       <c r="N29">
-        <v>7.25613706530995</v>
+        <v>21.78325</v>
       </c>
       <c r="O29">
-        <v>0.1408961595006629</v>
+        <v>0.137917980928751</v>
       </c>
       <c r="P29">
-        <v>0.1408961595006629</v>
+        <v>0.1604099844514633</v>
       </c>
       <c r="Q29">
-        <v>36.53100069967547</v>
+        <v>38.14588587952777</v>
       </c>
       <c r="R29">
-        <v>36.53100069967547</v>
+        <v>343.31297291575</v>
       </c>
       <c r="S29">
-        <v>0.01611128037405289</v>
+        <v>0.01617651891642426</v>
       </c>
       <c r="T29">
-        <v>0.01611128037405289</v>
+        <v>0.02112015674326029</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H30">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I30">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J30">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.102922725393521</v>
+        <v>9.630672333333335</v>
       </c>
       <c r="N30">
-        <v>9.102922725393521</v>
+        <v>28.892017</v>
       </c>
       <c r="O30">
-        <v>0.1767561500968517</v>
+        <v>0.1829262690185878</v>
       </c>
       <c r="P30">
-        <v>0.1767561500968517</v>
+        <v>0.2127583348555158</v>
       </c>
       <c r="Q30">
-        <v>45.8286376700683</v>
+        <v>50.59445139322079</v>
       </c>
       <c r="R30">
-        <v>45.8286376700683</v>
+        <v>455.3500625389871</v>
       </c>
       <c r="S30">
-        <v>0.02021182055026245</v>
+        <v>0.02145557983928713</v>
       </c>
       <c r="T30">
-        <v>0.02021182055026245</v>
+        <v>0.02801252924466923</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H31">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I31">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J31">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.5502947871832</v>
+        <v>11.596816</v>
       </c>
       <c r="N31">
-        <v>11.5502947871832</v>
+        <v>23.193632</v>
       </c>
       <c r="O31">
-        <v>0.2242780369178603</v>
+        <v>0.2202714628793548</v>
       </c>
       <c r="P31">
-        <v>0.2242780369178603</v>
+        <v>0.1707959165181028</v>
       </c>
       <c r="Q31">
-        <v>58.1499251122572</v>
+        <v>60.92352881712534</v>
       </c>
       <c r="R31">
-        <v>58.1499251122572</v>
+        <v>365.5411729027521</v>
       </c>
       <c r="S31">
-        <v>0.02564588238126413</v>
+        <v>0.02583582983176866</v>
       </c>
       <c r="T31">
-        <v>0.02564588238126413</v>
+        <v>0.02248760599476652</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H32">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I32">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J32">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.4877473232137</v>
+        <v>10.549349</v>
       </c>
       <c r="N32">
-        <v>10.4877473232137</v>
+        <v>21.098698</v>
       </c>
       <c r="O32">
-        <v>0.2036460042518571</v>
+        <v>0.2003757356031913</v>
       </c>
       <c r="P32">
-        <v>0.2036460042518571</v>
+        <v>0.1553690022437478</v>
       </c>
       <c r="Q32">
-        <v>65.48701874307714</v>
+        <v>66.0160062792975</v>
       </c>
       <c r="R32">
-        <v>65.48701874307714</v>
+        <v>264.06402511719</v>
       </c>
       <c r="S32">
-        <v>0.02888176342346805</v>
+        <v>0.02799539582686601</v>
       </c>
       <c r="T32">
-        <v>0.02888176342346805</v>
+        <v>0.01624486704759597</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H33">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I33">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J33">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>7.21537496703615</v>
+        <v>7.622387333333333</v>
       </c>
       <c r="N33">
-        <v>7.21537496703615</v>
+        <v>22.867162</v>
       </c>
       <c r="O33">
-        <v>0.1401046607943576</v>
+        <v>0.1447806370771423</v>
       </c>
       <c r="P33">
-        <v>0.1401046607943576</v>
+        <v>0.1683918194424199</v>
       </c>
       <c r="Q33">
-        <v>45.05385009216988</v>
+        <v>47.699585070185</v>
       </c>
       <c r="R33">
-        <v>45.05385009216988</v>
+        <v>286.19751042111</v>
       </c>
       <c r="S33">
-        <v>0.01987011570619104</v>
+        <v>0.02022795440195943</v>
       </c>
       <c r="T33">
-        <v>0.01987011570619104</v>
+        <v>0.01760648957797485</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H34">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I34">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J34">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.88741561314725</v>
+        <v>5.987528666666667</v>
       </c>
       <c r="N34">
-        <v>5.88741561314725</v>
+        <v>17.962586</v>
       </c>
       <c r="O34">
-        <v>0.1143189884384102</v>
+        <v>0.1137279144929728</v>
       </c>
       <c r="P34">
-        <v>0.1143189884384102</v>
+        <v>0.1322749424887504</v>
       </c>
       <c r="Q34">
-        <v>36.7618788596365</v>
+        <v>37.468921547305</v>
       </c>
       <c r="R34">
-        <v>36.7618788596365</v>
+        <v>224.81352928383</v>
       </c>
       <c r="S34">
-        <v>0.01621310465195751</v>
+        <v>0.01588943877466189</v>
       </c>
       <c r="T34">
-        <v>0.01621310465195751</v>
+        <v>0.01383022883217764</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H35">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I35">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J35">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.25613706530995</v>
+        <v>7.261083333333333</v>
       </c>
       <c r="N35">
-        <v>7.25613706530995</v>
+        <v>21.78325</v>
       </c>
       <c r="O35">
-        <v>0.1408961595006629</v>
+        <v>0.137917980928751</v>
       </c>
       <c r="P35">
-        <v>0.1408961595006629</v>
+        <v>0.1604099844514633</v>
       </c>
       <c r="Q35">
-        <v>45.30837455880678</v>
+        <v>45.438606963125</v>
       </c>
       <c r="R35">
-        <v>45.30837455880678</v>
+        <v>272.63164177875</v>
       </c>
       <c r="S35">
-        <v>0.01998236872323144</v>
+        <v>0.01926914182557865</v>
       </c>
       <c r="T35">
-        <v>0.01998236872323144</v>
+        <v>0.01677193541111138</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H36">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I36">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J36">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.102922725393521</v>
+        <v>9.630672333333335</v>
       </c>
       <c r="N36">
-        <v>9.102922725393521</v>
+        <v>28.892017</v>
       </c>
       <c r="O36">
-        <v>0.1767561500968517</v>
+        <v>0.1829262690185878</v>
       </c>
       <c r="P36">
-        <v>0.1767561500968517</v>
+        <v>0.2127583348555158</v>
       </c>
       <c r="Q36">
-        <v>56.83997266173283</v>
+        <v>60.26708617102251</v>
       </c>
       <c r="R36">
-        <v>56.83997266173283</v>
+        <v>361.602517026135</v>
       </c>
       <c r="S36">
-        <v>0.02506815358098894</v>
+        <v>0.02555745231772254</v>
       </c>
       <c r="T36">
-        <v>0.02506815358098894</v>
+        <v>0.0222453051321879</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H37">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I37">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J37">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.5502947871832</v>
+        <v>11.596816</v>
       </c>
       <c r="N37">
-        <v>11.5502947871832</v>
+        <v>23.193632</v>
       </c>
       <c r="O37">
-        <v>0.2242780369178603</v>
+        <v>0.2202714628793548</v>
       </c>
       <c r="P37">
-        <v>0.2242780369178603</v>
+        <v>0.1707959165181028</v>
       </c>
       <c r="Q37">
-        <v>72.12171955574487</v>
+        <v>72.57087407724001</v>
       </c>
       <c r="R37">
-        <v>72.12171955574487</v>
+        <v>290.28349630896</v>
       </c>
       <c r="S37">
-        <v>0.03180786790852246</v>
+        <v>0.03077511742680358</v>
       </c>
       <c r="T37">
-        <v>0.03180786790852246</v>
+        <v>0.01785785398657621</v>
       </c>
     </row>
   </sheetData>
